--- a/Task_10-2.xlsx
+++ b/Task_10-2.xlsx
@@ -1,35 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Период_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Период_2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Итоги" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Период_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Период_2" sheetId="2" r:id="rId2"/>
+    <sheet name="Итоги" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+  <si>
+    <t>Ф</t>
+  </si>
+  <si>
+    <t>В</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>П</t>
+  </si>
+  <si>
+    <t>А</t>
+  </si>
+  <si>
+    <t>Е</t>
+  </si>
+  <si>
+    <t>У</t>
+  </si>
+  <si>
+    <t>К</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Сумм. выработка</t>
+  </si>
+  <si>
+    <t>ИТОГО</t>
+  </si>
+  <si>
+    <t>5260</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,81 +87,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -409,96 +390,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B8"/>
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>100</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>200</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>300</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>400</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>150</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>250</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Е</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>350</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>У</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>220</v>
       </c>
     </row>
@@ -508,121 +469,87 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="11.140625" customWidth="1" min="2" max="2"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Фамилия</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Выработка</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>У</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
         <v>100</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>200</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>300</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>400</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>150</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Е</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>250</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Е</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>350</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>У</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>220</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>400</v>
       </c>
     </row>
@@ -632,111 +559,93 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Фамилия</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Сумм. выработка</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>450</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>1100</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Е</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>1050</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>400</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>1200</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>300</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>У</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>660</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ИТОГО</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>5160</t>
-        </is>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Task_10-2.xlsx
+++ b/Task_10-2.xlsx
@@ -1,75 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" activeTab="2"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Период_1" sheetId="1" r:id="rId1"/>
-    <sheet name="Период_2" sheetId="2" r:id="rId2"/>
-    <sheet name="Итоги" sheetId="3" r:id="rId3"/>
+    <sheet name="Период_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Период_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Итоги" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
-  <si>
-    <t>Ф</t>
-  </si>
-  <si>
-    <t>В</t>
-  </si>
-  <si>
-    <t>С</t>
-  </si>
-  <si>
-    <t>П</t>
-  </si>
-  <si>
-    <t>А</t>
-  </si>
-  <si>
-    <t>Е</t>
-  </si>
-  <si>
-    <t>У</t>
-  </si>
-  <si>
-    <t>К</t>
-  </si>
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>Сумм. выработка</t>
-  </si>
-  <si>
-    <t>ИТОГО</t>
-  </si>
-  <si>
-    <t>5260</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,22 +47,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -390,77 +409,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ф</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>А</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Е</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>У</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>220</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>А</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -469,88 +528,120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col width="11.140625" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>У</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>А</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Е</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Е</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>У</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>К</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>400</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>У</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -559,93 +650,109 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A1" sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>А</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Е</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1050</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>К</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>У</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ф</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ИТОГО</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5640</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Task_10-2.xlsx
+++ b/Task_10-2.xlsx
@@ -658,7 +658,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
     </row>
     <row r="4">
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="6">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>540</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8">
@@ -751,7 +751,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5640</t>
+          <t>4690</t>
         </is>
       </c>
     </row>
